--- a/matrix.xlsx
+++ b/matrix.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="29380" yWindow="0" windowWidth="13920" windowHeight="13400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8840" windowHeight="4650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="76">
   <si>
     <t>C</t>
   </si>
@@ -217,15 +217,6 @@
     <t>ct</t>
   </si>
   <si>
-    <t>Ut</t>
-  </si>
-  <si>
-    <t>Up</t>
-  </si>
-  <si>
-    <t>Ud</t>
-  </si>
-  <si>
     <t>=0</t>
   </si>
   <si>
@@ -244,10 +235,19 @@
     <t>&lt;=C0</t>
   </si>
   <si>
-    <t>vB</t>
-  </si>
-  <si>
-    <t>vC</t>
+    <t>z</t>
+  </si>
+  <si>
+    <t>&lt;=0.5</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>-A</t>
+  </si>
+  <si>
+    <t>&lt;=d</t>
   </si>
 </sst>
 </file>
@@ -976,11 +976,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ25"/>
+  <dimension ref="A1:AO25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AM7" sqref="AM7"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AL20" sqref="AL20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1005,14 +1005,13 @@
     <col min="35" max="35" width="2.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="3.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="37" max="38" width="3.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="3.1796875" style="1" customWidth="1"/>
-    <col min="41" max="41" width="4.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="3.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="8.81640625" style="28"/>
-    <col min="44" max="16384" width="8.81640625" style="1"/>
+    <col min="39" max="39" width="4.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="3.81640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="8.81640625" style="28"/>
+    <col min="42" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>56</v>
       </c>
@@ -1110,22 +1109,16 @@
         <v>64</v>
       </c>
       <c r="AJ1" s="32" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="AK1" s="30" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="AL1" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -1177,20 +1170,18 @@
       <c r="AJ2" s="34"/>
       <c r="AK2" s="33"/>
       <c r="AL2" s="34"/>
-      <c r="AM2" s="4"/>
-      <c r="AN2" s="4"/>
-      <c r="AO2" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="AP2" s="28">
+      <c r="AM2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN2" s="28">
         <v>72</v>
       </c>
-      <c r="AQ2" s="28">
-        <f>AP2</f>
+      <c r="AO2" s="28">
+        <f>AN2</f>
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -1242,22 +1233,18 @@
       <c r="AJ3" s="34"/>
       <c r="AK3" s="33"/>
       <c r="AL3" s="34"/>
-      <c r="AM3" s="4"/>
-      <c r="AN3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="AO3" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="AP3" s="28">
+      <c r="AM3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN3" s="28">
         <v>72</v>
       </c>
-      <c r="AQ3" s="28">
-        <f>AQ2+AP3</f>
+      <c r="AO3" s="28">
+        <f>AO2+AN3</f>
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -1307,20 +1294,18 @@
       <c r="AL4" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="AM4" s="4"/>
-      <c r="AN4" s="4"/>
-      <c r="AO4" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AP4" s="28">
+      <c r="AM4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN4" s="28">
         <v>72</v>
       </c>
-      <c r="AQ4" s="28">
-        <f t="shared" ref="AQ4:AQ12" si="0">AQ3+AP4</f>
+      <c r="AO4" s="28">
+        <f t="shared" ref="AO4:AO12" si="0">AO3+AN4</f>
         <v>216</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="27"/>
@@ -1371,21 +1356,17 @@
       </c>
       <c r="AL5" s="34"/>
       <c r="AM5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AN5" s="4"/>
-      <c r="AO5" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP5" s="28">
         <v>72</v>
       </c>
-      <c r="AQ5" s="28">
+      <c r="AN5" s="28">
+        <v>72</v>
+      </c>
+      <c r="AO5" s="28">
         <f t="shared" si="0"/>
         <v>288</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="27"/>
@@ -1436,21 +1417,17 @@
       </c>
       <c r="AL6" s="34"/>
       <c r="AM6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="AN6" s="4"/>
-      <c r="AO6" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="AP6" s="28">
         <v>72</v>
       </c>
-      <c r="AQ6" s="28">
+      <c r="AN6" s="28">
+        <v>72</v>
+      </c>
+      <c r="AO6" s="28">
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="27"/>
@@ -1498,20 +1475,18 @@
       <c r="AJ7" s="34"/>
       <c r="AK7" s="33"/>
       <c r="AL7" s="34"/>
-      <c r="AM7" s="4"/>
-      <c r="AN7" s="4"/>
-      <c r="AO7" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP7" s="28">
+      <c r="AM7" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AQ7" s="28">
+      <c r="AN7" s="28">
+        <v>72</v>
+      </c>
+      <c r="AO7" s="28">
         <f t="shared" si="0"/>
         <v>432</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
@@ -1559,20 +1534,18 @@
       <c r="AJ8" s="34"/>
       <c r="AK8" s="33"/>
       <c r="AL8" s="34"/>
-      <c r="AM8" s="4"/>
-      <c r="AN8" s="4"/>
-      <c r="AO8" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="AP8" s="28">
+      <c r="AM8" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AQ8" s="28">
+      <c r="AN8" s="28">
+        <v>72</v>
+      </c>
+      <c r="AO8" s="28">
         <f t="shared" si="0"/>
         <v>504</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -1620,20 +1593,18 @@
         <v>6</v>
       </c>
       <c r="AL9" s="34"/>
-      <c r="AM9" s="4"/>
-      <c r="AN9" s="4"/>
-      <c r="AO9" s="4" t="s">
+      <c r="AM9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AN9" s="28">
         <v>72</v>
       </c>
-      <c r="AP9" s="28">
-        <v>72</v>
-      </c>
-      <c r="AQ9" s="28">
+      <c r="AO9" s="28">
         <f t="shared" si="0"/>
         <v>576</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="27" t="s">
@@ -1683,20 +1654,18 @@
       <c r="AL10" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="AM10" s="4"/>
-      <c r="AN10" s="4"/>
-      <c r="AO10" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP10" s="28">
+      <c r="AM10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN10" s="28">
         <v>72</v>
       </c>
-      <c r="AQ10" s="28">
+      <c r="AO10" s="28">
         <f t="shared" si="0"/>
         <v>648</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="27" t="s">
@@ -1744,20 +1713,18 @@
       </c>
       <c r="AK11" s="33"/>
       <c r="AL11" s="34"/>
-      <c r="AM11" s="4"/>
-      <c r="AN11" s="4"/>
-      <c r="AO11" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="AP11" s="28">
+      <c r="AM11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AN11" s="28">
         <v>72</v>
       </c>
-      <c r="AQ11" s="28">
+      <c r="AO11" s="28">
         <f t="shared" si="0"/>
         <v>720</v>
       </c>
     </row>
-    <row r="12" spans="1:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C12" s="25"/>
       <c r="D12" s="22"/>
       <c r="E12" s="25"/>
@@ -1787,20 +1754,18 @@
       <c r="AJ12" s="37"/>
       <c r="AK12" s="35"/>
       <c r="AL12" s="37"/>
-      <c r="AM12" s="29"/>
-      <c r="AN12" s="29"/>
-      <c r="AO12" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AP12" s="28">
+      <c r="AM12" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN12" s="28">
         <v>12</v>
       </c>
-      <c r="AQ12" s="28">
+      <c r="AO12" s="28">
         <f t="shared" si="0"/>
         <v>732</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
@@ -1852,15 +1817,13 @@
       <c r="AJ13" s="2"/>
       <c r="AK13" s="2"/>
       <c r="AL13" s="2"/>
-      <c r="AM13" s="2"/>
-      <c r="AN13" s="2"/>
-      <c r="AO13" s="29"/>
-      <c r="AP13" s="28">
-        <f>SUM(AP2:AP12)</f>
+      <c r="AM13" s="29"/>
+      <c r="AN13" s="28">
+        <f>SUM(AN2:AN12)</f>
         <v>732</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="27" t="s">
@@ -1913,10 +1876,8 @@
       <c r="AK14" s="2"/>
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
-      <c r="AN14" s="2"/>
-      <c r="AO14" s="2"/>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="27" t="s">
@@ -1957,22 +1918,31 @@
       <c r="AA15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AB15" s="2"/>
+      <c r="AB15" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="AC15" s="2"/>
       <c r="AD15" s="2"/>
-      <c r="AE15" s="2"/>
+      <c r="AE15" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="AF15" s="2"/>
       <c r="AG15" s="2"/>
-      <c r="AH15" s="2"/>
+      <c r="AH15" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="AI15" s="2"/>
       <c r="AJ15" s="2"/>
       <c r="AK15" s="2"/>
       <c r="AL15" s="2"/>
-      <c r="AM15" s="2"/>
-      <c r="AN15" s="2"/>
-      <c r="AO15" s="2"/>
+      <c r="AM15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN15" s="28">
+        <v>72</v>
+      </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>6</v>
       </c>
@@ -2014,20 +1984,29 @@
         <v>38</v>
       </c>
       <c r="AB16" s="2"/>
-      <c r="AC16" s="2"/>
+      <c r="AC16" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="AE16" s="2"/>
-      <c r="AF16" s="2"/>
+      <c r="AF16" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="AG16" s="2"/>
       <c r="AH16" s="2"/>
-      <c r="AI16" s="2"/>
+      <c r="AI16" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="AJ16" s="2"/>
       <c r="AK16" s="2"/>
       <c r="AL16" s="2"/>
-      <c r="AM16" s="2"/>
-      <c r="AN16" s="2"/>
-      <c r="AO16" s="2"/>
+      <c r="AM16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN16" s="28">
+        <v>144</v>
+      </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>7</v>
       </c>
@@ -2065,22 +2044,29 @@
       <c r="Y17" s="28">
         <v>72</v>
       </c>
-      <c r="AB17" s="2"/>
-      <c r="AC17" s="2"/>
-      <c r="AD17" s="2"/>
-      <c r="AE17" s="2"/>
-      <c r="AF17" s="2"/>
-      <c r="AG17" s="2"/>
-      <c r="AH17" s="2"/>
-      <c r="AI17" s="2"/>
-      <c r="AJ17" s="2"/>
-      <c r="AK17" s="2"/>
-      <c r="AL17" s="2"/>
-      <c r="AM17" s="2"/>
-      <c r="AN17" s="2"/>
-      <c r="AO17" s="2"/>
+      <c r="AB17" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD17" s="34"/>
+      <c r="AE17" s="33"/>
+      <c r="AF17" s="4"/>
+      <c r="AG17" s="34"/>
+      <c r="AH17" s="33"/>
+      <c r="AI17" s="4"/>
+      <c r="AJ17" s="34"/>
+      <c r="AK17" s="33"/>
+      <c r="AL17" s="34"/>
+      <c r="AM17" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN17" s="28">
+        <v>216</v>
+      </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>19</v>
       </c>
@@ -2116,22 +2102,29 @@
       <c r="Y18" s="28">
         <v>72</v>
       </c>
-      <c r="AB18" s="2"/>
-      <c r="AC18" s="2"/>
-      <c r="AD18" s="2"/>
-      <c r="AE18" s="2"/>
-      <c r="AF18" s="2"/>
-      <c r="AG18" s="2"/>
-      <c r="AH18" s="2"/>
-      <c r="AI18" s="2"/>
-      <c r="AJ18" s="2"/>
-      <c r="AK18" s="2"/>
-      <c r="AL18" s="2"/>
-      <c r="AM18" s="2"/>
-      <c r="AN18" s="2"/>
-      <c r="AO18" s="2"/>
+      <c r="AB18" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD18" s="34"/>
+      <c r="AE18" s="33"/>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="34"/>
+      <c r="AH18" s="33"/>
+      <c r="AI18" s="4"/>
+      <c r="AJ18" s="34"/>
+      <c r="AK18" s="33"/>
+      <c r="AL18" s="34"/>
+      <c r="AM18" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN18" s="28">
+        <v>288</v>
+      </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
@@ -2167,8 +2160,17 @@
       <c r="Y19" s="28">
         <v>72</v>
       </c>
+      <c r="AH19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN19" s="28">
+        <v>360</v>
+      </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="27"/>
@@ -2202,8 +2204,20 @@
       <c r="Y20" s="28">
         <v>72</v>
       </c>
+      <c r="AB20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN20" s="28">
+        <v>372</v>
+      </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="27"/>
@@ -2240,7 +2254,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="27"/>
@@ -2277,7 +2291,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="27"/>
@@ -2314,7 +2328,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
         <v>60</v>
@@ -2349,7 +2363,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.35">
       <c r="Y25" s="28">
         <f>SUM(Y13:Y24)</f>
         <v>804</v>

--- a/matrix.xlsx
+++ b/matrix.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26812"/>
   <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brownflaming/Dropbox/Research/computation/siddp/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8840" windowHeight="4650"/>
+    <workbookView xWindow="200" yWindow="5060" windowWidth="23160" windowHeight="13420"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="89">
   <si>
     <t>C</t>
   </si>
@@ -248,6 +254,45 @@
   </si>
   <si>
     <t>&lt;=d</t>
+  </si>
+  <si>
+    <t>Bt+1</t>
+  </si>
+  <si>
+    <t>bt+1</t>
+  </si>
+  <si>
+    <t>Ct+1</t>
+  </si>
+  <si>
+    <t>ct+1</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>-R</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>&lt;=</t>
+  </si>
+  <si>
+    <t>zt+1</t>
+  </si>
+  <si>
+    <t>xt+1</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>-T</t>
+  </si>
+  <si>
+    <t>R*T</t>
   </si>
 </sst>
 </file>
@@ -559,7 +604,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -670,6 +715,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -976,42 +1024,406 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO25"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AL20" sqref="AL20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="4.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.6328125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="2" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="19" width="2.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="3.6328125" style="1" customWidth="1"/>
-    <col min="23" max="23" width="3.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="3.453125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="5.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="8.81640625" style="1"/>
-    <col min="28" max="30" width="2.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="4.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="7.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="2.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="2.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="3.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="38" width="3.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="4.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="3.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="8.81640625" style="28"/>
-    <col min="42" max="16384" width="8.81640625" style="1"/>
+    <col min="1" max="2" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="3.33203125" style="38" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.33203125" style="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="28">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="28">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J4" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="28">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J5" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="28">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="28">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="28">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J8" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="28">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J9" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="28">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J10" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="K10" s="28">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J11" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" s="28">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="38">
+        <f>SUM(K2:K11)</f>
+        <v>660</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BA25"/>
+  <sheetViews>
+    <sheetView topLeftCell="AA1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AQ1" sqref="AQ1:BA1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.6640625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="2" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="19" width="2.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="3.6640625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="3.5" style="1" customWidth="1"/>
+    <col min="25" max="25" width="5.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="8.83203125" style="1"/>
+    <col min="28" max="30" width="2.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="2.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="2.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="3.83203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="8.83203125" style="28"/>
+    <col min="42" max="42" width="8.83203125" style="1"/>
+    <col min="43" max="44" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="2.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="48" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="2.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="4.1640625" style="1" customWidth="1"/>
+    <col min="52" max="52" width="3.33203125" style="38" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="6.33203125" style="38" bestFit="1" customWidth="1"/>
+    <col min="54" max="16384" width="8.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>56</v>
       </c>
@@ -1117,8 +1529,32 @@
       <c r="AL1" s="32" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AQ1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -1180,8 +1616,23 @@
         <f>AN2</f>
         <v>72</v>
       </c>
-    </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AQ2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ2" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="BA2" s="28">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -1243,8 +1694,23 @@
         <f>AO2+AN3</f>
         <v>144</v>
       </c>
-    </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AR3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AY3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ3" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="BA3" s="28">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -1304,8 +1770,26 @@
         <f t="shared" ref="AO4:AO12" si="0">AO3+AN4</f>
         <v>216</v>
       </c>
-    </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AS4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AU4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AY4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ4" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="BA4" s="28">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="27"/>
@@ -1365,8 +1849,26 @@
         <f t="shared" si="0"/>
         <v>288</v>
       </c>
-    </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AV5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AW5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AX5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AY5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ5" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="BA5" s="28">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="27"/>
@@ -1426,8 +1928,23 @@
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
-    </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AS6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AV6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AY6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AZ6" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="BA6" s="28">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="27"/>
@@ -1485,8 +2002,23 @@
         <f t="shared" si="0"/>
         <v>432</v>
       </c>
-    </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AS7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AV7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AZ7" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="BA7" s="28">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +2076,23 @@
         <f t="shared" si="0"/>
         <v>504</v>
       </c>
-    </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AT8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AW8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AY8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AZ8" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="BA8" s="28">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -1603,8 +2150,23 @@
         <f t="shared" si="0"/>
         <v>576</v>
       </c>
-    </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AT9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AW9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AZ9" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="BA9" s="28">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="27" t="s">
@@ -1664,8 +2226,23 @@
         <f t="shared" si="0"/>
         <v>648</v>
       </c>
-    </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AS10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AV10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AZ10" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA10" s="28">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="27" t="s">
@@ -1723,8 +2300,12 @@
         <f t="shared" si="0"/>
         <v>720</v>
       </c>
-    </row>
-    <row r="12" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="BA11" s="28">
+        <f>SUM(BA2:BA10)</f>
+        <v>648</v>
+      </c>
+    </row>
+    <row r="12" spans="1:53" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C12" s="25"/>
       <c r="D12" s="22"/>
       <c r="E12" s="25"/>
@@ -1765,7 +2346,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
@@ -1823,7 +2404,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="27" t="s">
@@ -1877,7 +2458,7 @@
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="27" t="s">
@@ -1942,7 +2523,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>6</v>
       </c>
@@ -2006,7 +2587,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>7</v>
       </c>
@@ -2066,7 +2647,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>19</v>
       </c>
@@ -2124,7 +2705,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
@@ -2170,7 +2751,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="27"/>
@@ -2217,7 +2798,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="27"/>
@@ -2254,7 +2835,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="27"/>
@@ -2291,7 +2872,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="27"/>
@@ -2328,7 +2909,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
         <v>60</v>
@@ -2363,7 +2944,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
       <c r="Y25" s="28">
         <f>SUM(Y13:Y24)</f>
         <v>804</v>
@@ -2378,7 +2959,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BW15"/>
   <sheetViews>
@@ -2386,48 +2967,48 @@
       <selection activeCell="D3" sqref="D3:BW14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.36328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="1.36328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.36328125" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="1.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.36328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="1.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="2.36328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="21" width="1.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="2.36328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="23" max="27" width="1.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="2.36328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="29" max="33" width="1.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="2.36328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="35" max="39" width="1.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="3.1796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="41" max="45" width="1.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="3.1796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="47" max="51" width="1.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="3.1796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="53" max="57" width="1.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="3.1796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="2.453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="60" max="63" width="2.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="3.1796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="65" max="69" width="2.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="3.1796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="71" max="75" width="2.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="4.36328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="77" max="81" width="1.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="4.36328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="83" max="87" width="1.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="4.36328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="89" max="93" width="1.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="4.36328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="95" max="99" width="1.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="100" max="16384" width="8.81640625" style="5"/>
+    <col min="1" max="1" width="3.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="1.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="1.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="1.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="2.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="1.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="2.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="27" width="1.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="2.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="29" max="33" width="1.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="2.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="35" max="39" width="1.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="3.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="41" max="45" width="1.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="3.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="47" max="51" width="1.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="3.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="53" max="57" width="1.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="3.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="2.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="60" max="63" width="2.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="3.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="65" max="69" width="2.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="3.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="71" max="75" width="2.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="4.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="77" max="81" width="1.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="4.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="83" max="87" width="1.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="4.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="89" max="93" width="1.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="4.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="95" max="99" width="1.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="100" max="16384" width="8.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:75" x14ac:dyDescent="0.2">
       <c r="C1" s="5" t="s">
         <v>40</v>
       </c>
@@ -2648,7 +3229,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:75" s="12" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:75" s="12" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>41</v>
       </c>
@@ -2688,7 +3269,7 @@
       <c r="BL2" s="13"/>
       <c r="BR2" s="13"/>
     </row>
-    <row r="3" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>44</v>
       </c>
@@ -2781,7 +3362,7 @@
       <c r="BV3" s="10"/>
       <c r="BW3" s="10"/>
     </row>
-    <row r="4" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -2886,7 +3467,7 @@
       <c r="BV4" s="6"/>
       <c r="BW4" s="6"/>
     </row>
-    <row r="5" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>45</v>
       </c>
@@ -2979,7 +3560,7 @@
       <c r="BV5" s="6"/>
       <c r="BW5" s="6"/>
     </row>
-    <row r="6" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>2</v>
       </c>
@@ -3084,7 +3665,7 @@
       <c r="BV6" s="6"/>
       <c r="BW6" s="6"/>
     </row>
-    <row r="7" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>46</v>
       </c>
@@ -3177,7 +3758,7 @@
       <c r="BV7" s="6"/>
       <c r="BW7" s="6"/>
     </row>
-    <row r="8" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>3</v>
       </c>
@@ -3282,7 +3863,7 @@
       <c r="BV8" s="6"/>
       <c r="BW8" s="6"/>
     </row>
-    <row r="9" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>47</v>
       </c>
@@ -3375,7 +3956,7 @@
       <c r="BV9" s="6"/>
       <c r="BW9" s="6"/>
     </row>
-    <row r="10" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>4</v>
       </c>
@@ -3480,7 +4061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>48</v>
       </c>
@@ -3573,7 +4154,7 @@
       <c r="BV11" s="6"/>
       <c r="BW11" s="6"/>
     </row>
-    <row r="12" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>5</v>
       </c>
@@ -3678,7 +4259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
@@ -3771,7 +4352,7 @@
       <c r="BV13" s="6"/>
       <c r="BW13" s="6"/>
     </row>
-    <row r="14" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>6</v>
       </c>
@@ -3876,7 +4457,7 @@
       <c r="BV14" s="8"/>
       <c r="BW14" s="8"/>
     </row>
-    <row r="15" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
